--- a/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="405" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F18A3AA-F4E4-41E1-80B1-0267A66B8271}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C50EC5-83D2-475F-AC32-8EB0C29542B7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Number of peple benefitting from services of solar power systems</t>
+    <t>Number of people benefitting from services of solar power systems</t>
   </si>
   <si>
     <t>Capacity Training</t>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753D3B4-462C-4974-B3DB-74F2A245E8C5}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:S9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8FA07-5000-4073-9FB9-FFD62093D88A}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2133,7 +2133,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{AF2EC80F-D8A8-4626-AF80-ED6DF2DDCF67}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{30B51FA5-5217-4D99-BFC6-778F4900B04E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S8 R2" xr:uid="{30B51FA5-5217-4D99-BFC6-778F4900B04E}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2884,26 +2884,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3152,14 +3132,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A560867-8A8B-4398-9E3F-744955418FA1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8958C777-6F1B-4515-B033-B216AAC600E5}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D2FBA15-A1CD-4354-9FEA-4227C71DD75F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A560867-8A8B-4398-9E3F-744955418FA1}"/>
 </file>
--- a/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="407" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C50EC5-83D2-475F-AC32-8EB0C29542B7}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C91D59-AE42-43C8-B887-B3CD5903217E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -33,44 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={221452D1-0FF7-43D7-BD89-007EB36A82DE}</author>
-    <author>tc={01CC1721-F7D3-4D91-8156-C5A142F61AF5}</author>
-    <author>tc={A0DA0BEA-A6B7-4430-910E-D763BBE6C22E}</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{221452D1-0FF7-43D7-BD89-007EB36A82DE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I added this row</t>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{01CC1721-F7D3-4D91-8156-C5A142F61AF5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I changed the indicator from number of facility to number of beneficiaries.</t>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{A0DA0BEA-A6B7-4430-910E-D763BBE6C22E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I changed the indicator from number of facility to number of beneficiaries.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="119">
   <si>
     <t>Project ID</t>
   </si>
@@ -105,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -124,6 +88,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Assist NDC implementation in Albania</t>
@@ -167,7 +140,7 @@
     <t>Close the gap on energy access</t>
   </si>
   <si>
-    <t>Renewable Energy</t>
+    <t>Solar</t>
   </si>
   <si>
     <t>Electricity Access</t>
@@ -176,7 +149,7 @@
     <t>Number of people benefitting from services of solar power systems</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of people trained/educated/informed 
@@ -202,51 +175,57 @@
     <t>Government of Croatia</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
+    <t>Community Infrastructure Support (Albania)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00129778</t>
+  </si>
+  <si>
+    <t>3 education facilities are foreseen to be repaired/reconstructed in line with the best energy saving standards such as (i) high quality thermal insulated façade and terrace in an envelope system which prevents heat loss in the winter and heat gain in the summer, (ii) solar hot water collectors especially applied in kindergartens, (iii) efficient lighting system as well as (iv) efficient heating systems. These facilities are going to provide better services for 855 students and 51 teachers.</t>
+  </si>
+  <si>
+    <t>Government Of Albania; MPTF-SDGs Aceeleration Fund for Albania</t>
+  </si>
+  <si>
+    <t>EU4Schools Phase I (Albania)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00126861</t>
+  </si>
+  <si>
+    <t>European Commision</t>
+  </si>
+  <si>
+    <t>EU4Schools Phase II (Albania)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00129706</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>US$127205</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>US$1194743.13</t>
+  </si>
+  <si>
+    <t>Number of education facilities repaired/reconstrcuted in line with best energy saving standards</t>
+  </si>
+  <si>
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>Community Infrastructure Support (Albania)</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00129778</t>
-  </si>
-  <si>
-    <t>3 education facilities are foreseen to be repaired/reconstructed in line with the best energy saving standards such as (i) high quality thermal insulated façade and terrace in an envelope system which prevents heat loss in the winter and heat gain in the summer, (ii) solar hot water collectors especially applied in kindergartens, (iii) efficient lighting system as well as (iv) efficient heating systems. These facilities are going to provide better services for 855 students and 51 teachers.</t>
-  </si>
-  <si>
-    <t>Government Of Albania; MPTF-SDGs Aceeleration Fund for Albania</t>
-  </si>
-  <si>
-    <t>EU4Schools Phase I (Albania)</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00126861</t>
-  </si>
-  <si>
-    <t>European Commision</t>
-  </si>
-  <si>
-    <t>EU4Schools Phase II (Albania)</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00129706</t>
-  </si>
-  <si>
-    <t>US$127205</t>
-  </si>
-  <si>
-    <t>US$1194743.13</t>
-  </si>
-  <si>
-    <t>Number of education facilities repaired/reconstrcuted in line with best energy saving standards</t>
-  </si>
-  <si>
     <t>US$2611239</t>
   </si>
   <si>
@@ -316,49 +295,61 @@
     <t>Number of education facilities with access to energy through solar panels</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -367,7 +358,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -382,10 +376,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -394,19 +385,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -422,12 +413,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,8 +470,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,42 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,35 +693,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -757,43 +725,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,70 +769,70 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,37 +842,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -913,34 +881,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +929,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,10 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -994,17 +978,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,12 +1003,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="ardhi.wardhana@columbia.edu" id="{93C76E3A-A254-48B7-AD4F-85FBF73CE7B9}" userId="S::urn:spo:guest#ardhi.wardhana@columbia.edu::" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1315,26 +1290,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E3" dT="2023-09-14T11:08:49.85" personId="{93C76E3A-A254-48B7-AD4F-85FBF73CE7B9}" id="{221452D1-0FF7-43D7-BD89-007EB36A82DE}">
-    <text>I added this row</text>
-  </threadedComment>
-  <threadedComment ref="F5" dT="2023-09-14T10:28:01.39" personId="{93C76E3A-A254-48B7-AD4F-85FBF73CE7B9}" id="{01CC1721-F7D3-4D91-8156-C5A142F61AF5}">
-    <text>I changed the indicator from number of facility to number of beneficiaries.</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2023-09-14T10:26:54.00" personId="{93C76E3A-A254-48B7-AD4F-85FBF73CE7B9}" id="{A0DA0BEA-A6B7-4430-910E-D763BBE6C22E}">
-    <text>I changed the indicator from number of facility to number of beneficiaries.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753D3B4-462C-4974-B3DB-74F2A245E8C5}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753D3B4-462C-4974-B3DB-74F2A245E8C5}">
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,419 +1304,468 @@
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="48.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31"/>
-    </row>
-    <row r="2" spans="1:19" ht="262.5" customHeight="1">
-      <c r="A2" s="58">
+      <c r="S1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="262.5" customHeight="1">
+      <c r="A2" s="56">
         <v>142609</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="60">
+      <c r="B2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="58">
         <v>127205</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="F2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56" t="s">
+      <c r="I2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="J2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="42"/>
-    </row>
-    <row r="3" spans="1:19" ht="262.5" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="73" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="54"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" ht="262.5" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="73">
         <v>0</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="73">
         <v>2124</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="42"/>
-    </row>
-    <row r="4" spans="1:19" ht="125.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="77" t="s">
+      <c r="I3" s="93"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="69"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="78">
+      <c r="T3" s="54"/>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:21" ht="125.25" customHeight="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="76">
         <v>0</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="55">
         <v>250</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="1:19" ht="152.25">
-      <c r="A5" s="61">
+      <c r="I4" s="94"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" spans="1:21" ht="152.25">
+      <c r="A5" s="59">
         <v>125245</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="63">
+      <c r="B5" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="61">
         <v>1194743.1299999999</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="79" t="s">
+      <c r="E5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>170</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:21" ht="152.25">
+      <c r="A6" s="62">
+        <v>123351</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="64">
+        <v>2611239</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <v>906</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="69"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:21" s="27" customFormat="1" ht="45.75">
+      <c r="A7" s="62">
+        <v>120786</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="64">
+        <v>16955148.23</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="65">
+        <v>1429</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="69"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:21" s="28" customFormat="1" ht="45.75">
+      <c r="A8" s="62">
+        <v>123296</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="64">
+        <v>67752565.209999993</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="54">
+        <v>177</v>
+      </c>
+      <c r="H8" s="65">
+        <v>4490</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" spans="1:21" s="28" customFormat="1" ht="45.75">
+      <c r="A9" s="62">
+        <v>125245</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="54">
+      <c r="C9" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1194743.1299999999</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="54">
         <v>0</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H9" s="65">
         <v>170</v>
       </c>
-      <c r="I5" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" ht="152.25">
-      <c r="A6" s="64">
-        <v>123351</v>
-      </c>
-      <c r="B6" s="64" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="66">
-        <v>2611239</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="54">
-        <v>0</v>
-      </c>
-      <c r="H6" s="54">
-        <v>906</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="31"/>
-    </row>
-    <row r="7" spans="1:19" s="29" customFormat="1" ht="45.75">
-      <c r="A7" s="64">
-        <v>120786</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="66">
-        <v>16955148.23</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="56">
-        <v>0</v>
-      </c>
-      <c r="H7" s="67">
-        <v>1429</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="42"/>
-    </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" ht="45.75">
-      <c r="A8" s="64">
-        <v>123296</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="66">
-        <v>67752565.209999993</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="56">
-        <v>177</v>
-      </c>
-      <c r="H8" s="67">
-        <v>4490</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="43"/>
-    </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" ht="45.75">
-      <c r="A9" s="64">
-        <v>125245</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="66">
-        <v>1194743.1299999999</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="56">
-        <v>0</v>
-      </c>
-      <c r="H9" s="67">
-        <v>170</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="43"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I2:I4"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{3187611D-CB34-4461-A104-50725B677739}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{F0B5E755-4D80-468E-9554-BF31C10DA503}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{5C8CDCBA-42FA-416C-B0C9-A689D75A4B63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N9" xr:uid="{5B486731-1E01-4C71-B950-F19C83A2FE5E}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9" xr:uid="{5E2762E4-4FF6-4CA5-98B5-0C9730D19F23}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9" xr:uid="{0BA6ABB9-7E9C-4C5C-9551-4DF2E35BB4ED}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{16EC14BB-97CF-440A-8C80-939C9C54808D}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T9" xr:uid="{2F932545-4F6C-4A35-9387-AAC9B0CBB0A9}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{69E6263A-BF4D-43FA-BF21-1B97A57E6595}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9" xr:uid="{21DC602F-E9FB-4915-A5E8-1B1B1084EDA1}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{C7BC0223-BC6E-4EE0-A5E3-2FA62674C18F}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N9" xr:uid="{5B486731-1E01-4C71-B950-F19C83A2FE5E}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{FC29119A-2590-4AB8-B889-4F4E71239DE6}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1767,15 +1777,14 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{B0C15A0B-EDC9-457D-A93A-3F1568B59FD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D51CDE3C-E5D8-427A-A936-A47B530B83CB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71CC40CC-38D4-4FBC-88C8-6A323AB6E55A}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E8</xm:sqref>
+          <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1787,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8FA07-5000-4073-9FB9-FFD62093D88A}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,230 +1816,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="55" t="s">
+      <c r="L1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="262.5" customHeight="1">
-      <c r="A2" s="91">
+      <c r="A2" s="95">
         <v>142609</v>
       </c>
-      <c r="B2" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="D2" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="F2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="52" t="s">
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>26</v>
       </c>
+      <c r="I2" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="409.6" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="47">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="45">
         <v>0</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="45">
         <v>250</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="52"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:19" ht="229.5">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>125245</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="48">
+      <c r="B4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="46">
         <v>0</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="52">
         <v>170</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="52" t="s">
-        <v>26</v>
+      <c r="I4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="229.5">
-      <c r="A5" s="36">
+      <c r="A5" s="34">
         <v>123351</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>906</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="27" customFormat="1" ht="30.75">
+      <c r="A6" s="37">
+        <v>120786</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="H5" s="54">
-        <v>906</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="29" customFormat="1" ht="30.75">
-      <c r="A6" s="39">
-        <v>120786</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="31">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
+      <c r="H6" s="49">
         <v>1429</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="52" t="s">
-        <v>26</v>
+      <c r="I6" s="29"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -2038,36 +2047,36 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" ht="30.75">
-      <c r="A7" s="39">
+    <row r="7" spans="1:19" s="28" customFormat="1" ht="30.75">
+      <c r="A7" s="37">
         <v>123296</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="C7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="29">
         <v>177</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="49">
         <v>4490</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="52" t="s">
-        <v>26</v>
+      <c r="I7" s="29"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -2075,36 +2084,36 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" ht="30.75">
-      <c r="A8" s="39">
+    <row r="8" spans="1:19" s="28" customFormat="1" ht="30.75">
+      <c r="A8" s="37">
         <v>125245</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="51" t="s">
+      <c r="B8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="31">
+      <c r="E8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="29">
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <v>170</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="52" t="s">
-        <v>26</v>
+      <c r="I8" s="29"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -2151,7 +2160,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{422026C2-0D5D-4F12-8A11-FFCCF5440E47}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -2210,7 +2219,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2219,12 +2228,12 @@
         <v>134985</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="11">
+        <v>64</v>
+      </c>
+      <c r="D2" s="9">
         <v>87000</v>
       </c>
       <c r="E2" s="3"/>
@@ -2238,429 +2247,429 @@
         <v>142609</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9">
         <v>127205</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="91.5">
+      <c r="D4" s="9"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="76.5">
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="106.5">
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="229.5">
+      <c r="A7" s="16">
+        <v>125245</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1194743.1299999999</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.5">
+      <c r="A8" s="12">
+        <v>123351</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2611239</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="27" customFormat="1" ht="30.75">
+      <c r="A9" s="22">
+        <v>120786</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="24">
+        <v>16955148.23</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="91.5">
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1429</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:10" s="27" customFormat="1" ht="45.75">
+      <c r="A10" s="22">
+        <v>120786</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="24">
+        <v>16955148.23</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>7</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:10" s="27" customFormat="1" ht="30.75">
+      <c r="A11" s="22">
+        <v>120786</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="24">
+        <v>16955148.23</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>6800</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:10" s="28" customFormat="1" ht="30.75">
+      <c r="A12" s="22">
+        <v>123296</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="24">
+        <v>67752565.209999993</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="76.5">
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="106.5">
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="G12" s="26">
+        <v>177</v>
+      </c>
+      <c r="H12" s="25">
+        <v>4490</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:10" s="28" customFormat="1" ht="45.75">
+      <c r="A13" s="22">
+        <v>123296</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="24">
+        <v>67752565.209999993</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>11</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:10" s="28" customFormat="1" ht="30.75">
+      <c r="A14" s="22">
+        <v>123296</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="24">
+        <v>67752565.209999993</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>3</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A15" s="22">
+        <v>123296</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="24">
+        <v>67752565.209999993</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>9200</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:10" s="28" customFormat="1" ht="30.75">
+      <c r="A16" s="22">
+        <v>125245</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1194743.1299999999</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="229.5">
-      <c r="A7" s="18">
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>170</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" s="28" customFormat="1" ht="30.75">
+      <c r="A17" s="22">
         <v>125245</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="B17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="24">
         <v>1194743.1299999999</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="E17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="26">
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H17" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" s="28" customFormat="1" ht="30.75">
+      <c r="A18" s="22">
+        <v>125245</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="229.5">
-      <c r="A8" s="14">
+      <c r="D18" s="24">
+        <v>1194743.1299999999</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>83</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" s="28" customFormat="1" ht="30.75">
+      <c r="A19" s="22">
         <v>123351</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="16">
+      <c r="C19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="24">
         <v>2611239</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="E19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="26">
         <v>0</v>
       </c>
-      <c r="H8" s="21">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="29" customFormat="1" ht="30.75">
-      <c r="A9" s="24">
-        <v>120786</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="26">
-        <v>16955148.23</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="28">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>1429</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="45.75">
-      <c r="A10" s="24">
-        <v>120786</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="26">
-        <v>16955148.23</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>7</v>
-      </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:10" s="29" customFormat="1" ht="30.75">
-      <c r="A11" s="24">
-        <v>120786</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="26">
-        <v>16955148.23</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>6800</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" ht="30.75">
-      <c r="A12" s="24">
-        <v>123296</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="26">
-        <v>67752565.209999993</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="28">
-        <v>177</v>
-      </c>
-      <c r="H12" s="27">
-        <v>4490</v>
-      </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" ht="45.75">
-      <c r="A13" s="24">
-        <v>123296</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="26">
-        <v>67752565.209999993</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="28">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27">
-        <v>11</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="30.75">
-      <c r="A14" s="24">
-        <v>123296</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="26">
-        <v>67752565.209999993</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>3</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A15" s="24">
-        <v>123296</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="26">
-        <v>67752565.209999993</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>9200</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" ht="30.75">
-      <c r="A16" s="24">
-        <v>125245</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="26">
-        <v>1194743.1299999999</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>170</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="30.75">
-      <c r="A17" s="24">
-        <v>125245</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="26">
-        <v>1194743.1299999999</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1</v>
-      </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="30.75">
-      <c r="A18" s="24">
-        <v>125245</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="26">
-        <v>1194743.1299999999</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="28">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>83</v>
-      </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" ht="30.75">
-      <c r="A19" s="24">
-        <v>123351</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2611239</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <v>465</v>
       </c>
       <c r="I19"/>
@@ -2689,7 +2698,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E15</xm:sqref>
         </x14:dataValidation>
@@ -2701,184 +2710,193 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="99"/>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="99"/>
-      <c r="B4" t="s">
+      <c r="B1" s="87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="100" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="103" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="100"/>
-      <c r="B6" t="s">
+      <c r="B5" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="103" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="100"/>
-      <c r="B7" t="s">
+      <c r="B6" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="103" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="100"/>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B7" s="88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="100"/>
-      <c r="B9" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B8" s="88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="101" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="104" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="101"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="102" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="102"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="102"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="103" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="88" t="s">
         <v>109</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Albania - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="541" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C91D59-AE42-43C8-B887-B3CD5903217E}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="11_9B942BB7F348A3B6AE88B8ED56ED3DCB9C2B3A77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA53882-CC61-41EC-A322-3AC2FD828CC4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,9 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753D3B4-462C-4974-B3DB-74F2A245E8C5}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1510,7 +1508,7 @@
     </row>
     <row r="5" spans="1:21" ht="152.25">
       <c r="A5" s="59">
-        <v>125245</v>
+        <v>132984</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>36</v>
@@ -1557,7 +1555,7 @@
     </row>
     <row r="6" spans="1:21" ht="152.25">
       <c r="A6" s="62">
-        <v>123351</v>
+        <v>129778</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>43</v>
@@ -1604,7 +1602,7 @@
     </row>
     <row r="7" spans="1:21" s="27" customFormat="1" ht="45.75">
       <c r="A7" s="62">
-        <v>120786</v>
+        <v>126861</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>47</v>
@@ -1649,7 +1647,7 @@
     </row>
     <row r="8" spans="1:21" s="28" customFormat="1" ht="45.75">
       <c r="A8" s="62">
-        <v>123296</v>
+        <v>129706</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>50</v>
@@ -1694,7 +1692,7 @@
     </row>
     <row r="9" spans="1:21" s="28" customFormat="1" ht="45.75">
       <c r="A9" s="62">
-        <v>125245</v>
+        <v>132984</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>36</v>
@@ -2902,8 +2900,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2928,6 +2946,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3007,6 +3026,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3150,28 +3174,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A560867-8A8B-4398-9E3F-744955418FA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D2FBA15-A1CD-4354-9FEA-4227C71DD75F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3179,5 +3183,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D2FBA15-A1CD-4354-9FEA-4227C71DD75F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EDC849E-4E69-4B7C-83CD-C8F07F9CE463}"/>
 </file>